--- a/DrawTripertiteFromCsv/# TestModel/input/★ calc design response spectrum.xlsx
+++ b/DrawTripertiteFromCsv/# TestModel/input/★ calc design response spectrum.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aki32\Dropbox\Codes\# Projects\# Utilities\Structural Engineering\# Integrated\1 Dynamics\TriperTite\# TestModel\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aki32\Dropbox\Codes\# Projects\# Utilities\Structural Engineering\DrawTripertiteFromCsv\# TestModel\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9B5A530-FD87-4392-A866-CAE1663DF91F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19CE2354-D0B7-402F-9818-50EBC05C41A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-5655" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1470" yWindow="-120" windowWidth="27450" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DRS" sheetId="1" r:id="rId1"/>
@@ -25886,7 +25886,7 @@
   <dimension ref="B1:F303"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="T25" sqref="T25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -38225,7 +38225,7 @@
         <v>4.0912300000000004</v>
       </c>
       <c r="B258" s="4">
-        <f t="shared" ref="B258:B321" si="12" xml:space="preserve">
+        <f t="shared" ref="B258:B301" si="12" xml:space="preserve">
 IF(A258&lt;0.64,    1.5,
 IF(A258&lt;$I$2,   1.5*A258/0.64,
 $I$1))</f>
